--- a/03. Charts and Graph Practice.xlsx
+++ b/03. Charts and Graph Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Practice\Excel-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6F46E6-969B-465C-A336-92F20A902F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1979B9E-2683-4CED-B8D3-98395DD50EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8472" yWindow="0" windowWidth="14568" windowHeight="12960" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>January</t>
   </si>
@@ -92,18 +92,6 @@
   </si>
   <si>
     <t>Dunder Mifflin Sales Report</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -249,9 +237,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -268,15 +255,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -380,142 +369,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CCC-4183-B1FE-E05EF6077DA0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sales!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Printer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$2:$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>91</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CCC-4183-B1FE-E05EF6077DA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -534,15 +391,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -646,142 +505,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8CCC-4183-B1FE-E05EF6077DA0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sales!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Staplers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$2:$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8CCC-4183-B1FE-E05EF6077DA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -800,15 +527,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -912,277 +643,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8CCC-4183-B1FE-E05EF6077DA0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sales!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Highlighters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$2:$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8CCC-4183-B1FE-E05EF6077DA0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sales!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$2:$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sales!$B$9:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8CCC-4183-B1FE-E05EF6077DA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1194,45 +658,44 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="474599488"/>
         <c:axId val="474593728"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sales!$A$10</c15:sqref>
+                          <c15:sqref>Sales!$A$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Total Items Per Month</c:v>
+                        <c:v>Printer</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -1291,6 +754,608 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
+                          <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$4:$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>91</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8CCC-4183-B1FE-E05EF6077DA0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$6:$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8CCC-4183-B1FE-E05EF6077DA0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-8CCC-4183-B1FE-E05EF6077DA0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$9:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-8CCC-4183-B1FE-E05EF6077DA0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
                           <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
@@ -1340,16 +1405,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-8CCC-4183-B1FE-E05EF6077DA0}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="474599488"/>
         <c:scaling>
@@ -1358,7 +1424,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1423,7 +1489,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1466,7 +1532,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2903,14 +2969,4374 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D39C-4E09-A378-DD9C9AFC6E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D39C-4E09-A378-DD9C9AFC6E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D39C-4E09-A378-DD9C9AFC6E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D39C-4E09-A378-DD9C9AFC6E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D39C-4E09-A378-DD9C9AFC6E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D39C-4E09-A378-DD9C9AFC6E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D39C-4E09-A378-DD9C9AFC6E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="474599488"/>
+        <c:axId val="474593728"/>
+        <c:axId val="583800776"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-D39C-4E09-A378-DD9C9AFC6E67}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="474599488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474593728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474593728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474599488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="583800776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474593728"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="474599488"/>
+        <c:axId val="474593728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$4:$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>91</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$6:$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$9:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-5CF6-4B5F-8DA8-AA749B7CB1C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="474599488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474593728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474593728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474599488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$3:$N$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA14-435E-B7D5-C2AA13CECA91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA14-435E-B7D5-C2AA13CECA91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sales!$B$7:$N$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA14-435E-B7D5-C2AA13CECA91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="474599488"/>
+        <c:axId val="474593728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Printer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$4:$N$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$4:$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>91</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-AA14-435E-B7D5-C2AA13CECA91}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Staplers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$6:$N$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$6:$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-AA14-435E-B7D5-C2AA13CECA91}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Highlighters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$8:$N$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$8:$M$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-AA14-435E-B7D5-C2AA13CECA91}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pens</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$9:$N$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$9:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-AA14-435E-B7D5-C2AA13CECA91}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Items Per Month</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$2:$N$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$2:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>January</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>February </c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>March</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>April</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>June</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>July</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>August</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>September</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>October</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>November</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>December</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sales!$B$10:$N$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sales!$B$10:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>585</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>547</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>871</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>721</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-AA14-435E-B7D5-C2AA13CECA91}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="474599488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474593728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474593728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474599488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2983,6 +7409,123 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3989,18 +8532,1527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>357398</xdr:colOff>
+      <xdr:colOff>357397</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74177</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486000</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>124077</xdr:rowOff>
     </xdr:to>
@@ -4065,6 +10117,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>232229</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD14747-F4CB-48A8-9D0F-E20AC9D07B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>334195</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1671</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD6E429-DD6F-4656-8DDF-792761A99890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>50603</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>172138</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F4BA4F-E36C-44F8-AD52-5604C39BA76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4372,8 +10538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41930B34-5114-49CB-81BC-662EB848F545}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="99" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4827,8 +10993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B444C6-5638-496B-93B2-259D582C3A1D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="105" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
